--- a/24MgREACLIB.xlsx
+++ b/24MgREACLIB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastian/Desktop/24Mg_agp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32270FC5-B230-4C4C-939E-826CB62D6C26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{932BFB83-7A7A-FE44-929D-E53DF3AB3155}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{7DA7426B-8859-EC4A-951B-021C46F8798E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="5" xr2:uid="{7DA7426B-8859-EC4A-951B-021C46F8798E}"/>
   </bookViews>
   <sheets>
     <sheet name="nacr" sheetId="1" r:id="rId1"/>
@@ -411,7 +411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E6687D7-7071-D84D-A41F-425CBCA576FA}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
@@ -986,7 +986,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1846,8 +1846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F0A7B6-5764-B94C-860F-02DAAA927816}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1868,7 +1868,7 @@
         <v>0.1</v>
       </c>
       <c r="C2" s="2">
-        <v>6.9805580000000003E-89</v>
+        <v>2.0762880000000001E-91</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1879,7 +1879,7 @@
         <v>0.15</v>
       </c>
       <c r="C3" s="2">
-        <v>1.9636859999999999E-59</v>
+        <v>3.4214759999999999E-62</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1890,7 +1890,7 @@
         <v>0.2</v>
       </c>
       <c r="C4" s="2">
-        <v>2.1575039999999999E-44</v>
+        <v>6.9060119999999995E-47</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1901,7 +1901,7 @@
         <v>0.3</v>
       </c>
       <c r="C5" s="2">
-        <v>5.6686180000000005E-29</v>
+        <v>1.4715360000000001E-30</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1912,7 +1912,7 @@
         <v>0.4</v>
       </c>
       <c r="C6" s="2">
-        <v>5.0359510000000001E-21</v>
+        <v>5.1879639999999998E-22</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1923,7 +1923,7 @@
         <v>0.5</v>
       </c>
       <c r="C7" s="2">
-        <v>3.9497500000000002E-16</v>
+        <v>9.4576770000000003E-17</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1934,7 +1934,7 @@
         <v>0.6</v>
       </c>
       <c r="C8" s="2">
-        <v>8.6139249999999996E-13</v>
+        <v>2.9412910000000002E-13</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1945,7 +1945,7 @@
         <v>0.7</v>
       </c>
       <c r="C9" s="2">
-        <v>2.3435370000000001E-10</v>
+        <v>7.7929650000000001E-11</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1956,7 +1956,7 @@
         <v>0.8</v>
       </c>
       <c r="C10" s="2">
-        <v>1.702076E-8</v>
+        <v>5.5642479999999999E-9</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1967,7 +1967,7 @@
         <v>0.9</v>
       </c>
       <c r="C11" s="2">
-        <v>5.0625380000000004E-7</v>
+        <v>1.8136489999999999E-7</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1978,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="2">
-        <v>7.9953290000000005E-6</v>
+        <v>3.1487739999999999E-6</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1989,7 +1989,7 @@
         <v>1.5</v>
       </c>
       <c r="C13" s="2">
-        <v>4.4188190000000002E-2</v>
+        <v>2.3318559999999999E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2000,7 +2000,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="2">
-        <v>4.4194170000000002</v>
+        <v>2.7769870000000001</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2011,7 +2011,7 @@
         <v>2.5</v>
       </c>
       <c r="C15" s="2">
-        <v>82.635599999999997</v>
+        <v>58.807450000000003</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2022,7 +2022,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="2">
-        <v>648.17449999999997</v>
+        <v>504.90859999999998</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2033,7 +2033,7 @@
         <v>3.5</v>
       </c>
       <c r="C17" s="2">
-        <v>3048.4549999999999</v>
+        <v>2530.3310000000001</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2044,7 +2044,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>10327.33</v>
+        <v>8932.18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2055,7 +2055,7 @@
         <v>4.5</v>
       </c>
       <c r="C19" s="2">
-        <v>27971.52</v>
+        <v>24736.66</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2066,7 +2066,7 @@
         <v>5</v>
       </c>
       <c r="C20" s="2">
-        <v>64567.94</v>
+        <v>57450.93</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2077,7 +2077,7 @@
         <v>6</v>
       </c>
       <c r="C21" s="2">
-        <v>248046.5</v>
+        <v>214828.6</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2088,7 +2088,7 @@
         <v>7</v>
       </c>
       <c r="C22" s="2">
-        <v>714699</v>
+        <v>578853</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2099,7 +2099,7 @@
         <v>8</v>
       </c>
       <c r="C23" s="2">
-        <v>1711653</v>
+        <v>1260031</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2110,7 +2110,7 @@
         <v>9</v>
       </c>
       <c r="C24" s="2">
-        <v>3612870</v>
+        <v>2370570</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2121,7 +2121,7 @@
         <v>10</v>
       </c>
       <c r="C25" s="2">
-        <v>6966942</v>
+        <v>4023793</v>
       </c>
     </row>
   </sheetData>
